--- a/payslip hans.xlsx
+++ b/payslip hans.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsrtcorp/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C159B-AEA3-0441-990F-B76D32A2F1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,34 +158,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
-    <numFmt numFmtId="165" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Candara"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Candara"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,7 +200,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -181,7 +210,13 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -192,6 +227,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -203,27 +240,35 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -233,23 +278,30 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -257,6 +309,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -268,6 +321,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -276,9 +331,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -287,9 +344,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -304,6 +363,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -312,94 +372,90 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -589,312 +645,306 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:AM5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="2" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="7" t="s">
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="9" t="s">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AL3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AM3" s="14"/>
+      <c r="AM3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="18" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="18" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="18" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AD4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AF4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AG4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AH4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AI4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="14"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="23">
-        <v>46023.0</v>
+      <c r="C5" s="7">
+        <v>46023</v>
       </c>
       <c r="D5" s="23">
-        <v>7.436438E8</v>
-      </c>
-      <c r="E5" s="21">
-        <v>31.0</v>
-      </c>
-      <c r="F5" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21">
-        <v>23.0</v>
-      </c>
-      <c r="L5" s="21">
-        <v>4000000.0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>200000.0</v>
-      </c>
-      <c r="N5" s="21">
-        <v>20000.0</v>
-      </c>
-      <c r="O5" s="21">
+        <v>7295554665</v>
+      </c>
+      <c r="E5" s="5">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5">
+        <v>23</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>200000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="O5" s="5">
         <f>N5*K5</f>
         <v>460000</v>
       </c>
-      <c r="P5" s="21">
-        <v>15000.0</v>
-      </c>
-      <c r="Q5" s="21">
+      <c r="P5" s="5">
+        <v>15000</v>
+      </c>
+      <c r="Q5" s="5">
         <f>K5*P5</f>
         <v>345000</v>
       </c>
-      <c r="R5" s="21">
-        <v>200000.0</v>
-      </c>
-      <c r="S5" s="21">
-        <v>200000.0</v>
-      </c>
-      <c r="T5" s="21">
-        <f>sum(L5,M5,O5,Q5:S5)</f>
+      <c r="R5" s="5">
+        <v>200000</v>
+      </c>
+      <c r="S5" s="5">
+        <v>200000</v>
+      </c>
+      <c r="T5" s="5">
+        <f>SUM(L5,M5,O5,Q5:S5)</f>
         <v>5405000</v>
       </c>
-      <c r="U5" s="21">
-        <v>15000.0</v>
-      </c>
-      <c r="V5" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="W5" s="21">
+      <c r="U5" s="5">
+        <v>15000</v>
+      </c>
+      <c r="V5" s="5">
+        <v>10</v>
+      </c>
+      <c r="W5" s="5">
         <f>U5*V5</f>
         <v>150000</v>
       </c>
-      <c r="X5" s="21">
-        <v>200000.0</v>
-      </c>
-      <c r="Y5" s="21">
-        <v>100000.0</v>
-      </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="21">
-        <f>sum(T5,W5,X5,Y5)</f>
+      <c r="X5" s="5">
+        <v>200000</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>100000</v>
+      </c>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="5">
+        <f>SUM(T5,W5,X5,Y5)</f>
         <v>5855000</v>
       </c>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="21">
-        <v>20000.0</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>20000.0</v>
-      </c>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="21">
-        <v>500000.0</v>
-      </c>
-      <c r="AG5" s="21">
-        <v>2500.0</v>
-      </c>
-      <c r="AH5" s="21">
-        <v>200000.0</v>
-      </c>
-      <c r="AI5" s="21">
-        <f>sum(AC5:AH5)</f>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="5">
+        <v>500000</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>2500</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>200000</v>
+      </c>
+      <c r="AI5" s="5">
+        <f>SUM(AC5:AH5)</f>
         <v>742500</v>
       </c>
-      <c r="AJ5" s="21">
+      <c r="AJ5" s="5">
         <f>AA5-AI5</f>
         <v>5112500</v>
       </c>
-      <c r="AK5" s="22" t="s">
+      <c r="AK5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:R4"/>
@@ -902,7 +952,22 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>